--- a/src/testCase/useCase_file/Aerocheck/铺层库制作工具弹窗.xlsx
+++ b/src/testCase/useCase_file/Aerocheck/铺层库制作工具弹窗.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
     <sheet name="铺层库制作弹窗" sheetId="1" r:id="rId2"/>
+    <sheet name="选择铺层Excel文件" sheetId="3" r:id="rId3"/>
+    <sheet name="铺层数据保存路径文本框" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,36 +35,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>预期结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用例状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、选择铺层Excel文件文本框手动输入正确的路径和名称，但是文件不存在；
-2、铺层数据保存路径文本框输入准确的路径。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、选择铺层Excel文件文本框手动输入汉字；
-2、铺层数据保存路径文本框输入准确的路径。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、选择铺层Excel文件文本框手动输入特殊字符；
-2、铺层数据保存路径文本框输入准确的路径。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、选择铺层Excel文件文本框手动输入最大字符数；
-2、铺层数据保存路径文本框输入准确的路径。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、选择铺层Excel文件文本框手动输入正确的路径和已存在文件的文件名称，但是路径里的文件夹名称和文件名称都是汉字；
-2、铺层数据保存路径文本框输入准确的路径。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -86,86 +59,134 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pcktc001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>铺层信息-&gt;铺层数据库制作工具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>选择铺层Excel文件浏览按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始制作按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板文件按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择铺层Excel文件文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板文件按钮等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据保存路径浏览按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始制作按钮等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭按钮等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>预期状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择铺层Excel文件浏览按钮对应文本框预期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据保存路径浏览对应文本框预期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlyLibDb_352_541.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plylib.db</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果提示信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择铺层Excel文件文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据保存路径文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1、选择铺层Excel文件文本框输入为空；
-2、铺层数据保存路径文本框手动输入准确的路径。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择铺层Excel文件浏览按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层信息-&gt;铺层数据库制作工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始制作按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板文件按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择铺层Excel文件文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层数据保存路径文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板文件按钮等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层数据保存路径浏览按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层数据保存路径浏览按钮等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择铺层Excel文件浏览按钮等到时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始制作按钮等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭按钮等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>提升信息类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Desktop\aro\aro3\plylib.db</t>
+2、铺层数据保存路径文本框手动输入准确的路径；
+3、点击“开始制作”按钮。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选择铺层Excel文件文本框手动输入正确的路径和名称，但是文件不存在；
+2、铺层数据保存路径文本框输入准确的路径；
+3、点击“开始制作”按钮。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选择铺层Excel文件文本框手动输入纯汉字；
+2、铺层数据保存路径文本框输入准确的路径；
+3、点击“开始制作”按钮。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选择铺层Excel文件文本框手动输入纯特殊字符；
+2、铺层数据保存路径文本框输入准确的路径；
+3、点击“开始制作”按钮。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选择铺层Excel文件文本框手动输入正确的路径和已存在文件的文件名称，但是路径里的文件夹名称和文件名称都是汉字；
+2、铺层数据保存路径文本框输入准确的路径；
+3、点击“开始制作”按钮。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选择铺层Excel文件文本框手动输入最大字符数；
+2、铺层数据保存路径文本框输入准确的路径；
+3、点击“开始制作”按钮。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -173,23 +194,101 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>给出提示信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlyLibDb.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉字汉字汉字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉字汉字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！@#￥%……&amp;*（）——+|}{【】、？》。、!@#$%^&amp;*()_+-=\][{}|/.&gt;?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认12345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、铺层数据保存路径文本框输正常的路径格式，但是文件夹名不存在；
+2、选择铺层Excel文件文本框输入准确的路径。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\UltraEdddd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选择铺层Excel文件点击对应的浏览按钮，选择准确的文件路径和文件名称；
+2、铺层数据保存路径点击对应的浏览按钮，选择准确的文件保存地址；
+3、点击“开始制作”按钮。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选择铺层Excel文件点击对应的浏览按钮，选择准确的文件路径和文件名称；
+2、铺层数据库保存路径点击对应的浏览按钮，选择准确的文件保存地址，但是保存的文件名称已经存在；
+3、点击“开始制作”按钮。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选择铺层Excel文件和铺层数据库保存路径两个文本框都输入为空；
+2、点击“开始制作”按钮。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>默认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>点击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
+    <t>铺层数据库制作已完成!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果提示信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -197,15 +296,105 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>警告弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果提示信息</t>
+    <t>提示信息类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck002</t>
+  </si>
+  <si>
+    <t>pck003</t>
+  </si>
+  <si>
+    <t>pck001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck005</t>
+  </si>
+  <si>
+    <t>pck006</t>
+  </si>
+  <si>
+    <t>pck007</t>
+  </si>
+  <si>
+    <t>pck008</t>
+  </si>
+  <si>
+    <t>pck009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pck011</t>
+  </si>
+  <si>
+    <t>pck012</t>
+  </si>
+  <si>
+    <t>pck013</t>
+  </si>
+  <si>
+    <t>pck014</t>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动识别结构单元完毕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动识别结构单元完毕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>请选择铺层库Exce文件!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择铺层库Exce文件!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选铺层库Exce文件不存在,请重新选择!OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选铺层库Exce文件不存在,请重新选择!OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择铺层库Exce文件!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选铺层库Exce文件不存在,请重新选择!OK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -611,18 +800,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="22" max="22" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,116 +824,160 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
         <v>0.5</v>
       </c>
       <c r="S2" s="2">
         <v>0</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="T2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="2" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -752,25 +987,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="92.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="6" customWidth="1"/>
-    <col min="4" max="11" width="6.375" style="6" customWidth="1"/>
+    <col min="4" max="9" width="11" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7" style="6" customWidth="1"/>
     <col min="12" max="12" width="22" style="6" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="6" customWidth="1"/>
-    <col min="14" max="20" width="5.875" style="6" customWidth="1"/>
-    <col min="21" max="16384" width="10.875" style="6"/>
+    <col min="14" max="14" width="10.875" style="6"/>
+    <col min="17" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,253 +1018,1248 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
         <v>0.5</v>
       </c>
       <c r="S2" s="2">
         <v>0</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="3" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="M3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="M4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="I5" s="4"/>
-      <c r="M5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="I6" s="4"/>
-      <c r="M6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="I7" s="4"/>
-      <c r="M7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O7"/>
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="I8" s="4"/>
-      <c r="M8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="I9" s="4"/>
-      <c r="M9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="I10" s="4"/>
-      <c r="M10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="I11" s="4"/>
-      <c r="M11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="I12" s="4"/>
-      <c r="M12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:20" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:20" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:20" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="15:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="15:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="15:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="U19" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="6" customWidth="1"/>
+    <col min="4" max="10" width="7.625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7" style="6" customWidth="1"/>
+    <col min="12" max="12" width="22" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="6"/>
+    <col min="17" max="16384" width="10.875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="M7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O8"/>
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O10"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O11"/>
+      <c r="P11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="6" customWidth="1"/>
+    <col min="4" max="9" width="9.375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7" style="6" customWidth="1"/>
+    <col min="12" max="12" width="22" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="6"/>
+    <col min="17" max="16384" width="10.875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O8"/>
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O10"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O11"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N13" s="6"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="U13" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>